--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_29.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,583 +488,612 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D#:min', 'A#:7', 'D#:min'], ['D#:min', 'A#:maj', 'D#:min']]</t>
-        </is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_174</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
+          <t>[['D:min', 'A:(3,5,b7,b9)', 'D:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(8.26, 12.96), (0.36, 5.06)]</t>
+          <t>[['A#:min', 'F:(3,5,b7,b9)/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(74.8, 81.06), (13.42, 19.5)]</t>
+          <t>[('0:01:43', '0:02:02.840000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:32.480000', '0:00:45.820000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_231</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_14</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.07229872881355932</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_155</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4166666666666667</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A/5', 'D', 'G']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(5.370181, 9.236303)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(79.713866, 84.787426)]</t>
+          <t>[('0:00:21.280000', '0:00:41.800000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:4F1AgKpuFRMLEgtPETVwZk</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:0pNeVovbiZHkulpGeOx1Gj</t>
-        </is>
-      </c>
+          <t>[('0:00:01.460000', '0:00:11.260000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_142</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2202898550724638</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(42.36, 50.36)]</t>
+          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(0.36, 5.6)]</t>
+          <t>[('0:00:08.300000', '0:00:14.360000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:01.920000', '0:00:05.280000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_158</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(26.2, 33.96), (80.2, 86.86)]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(97.88, 108.98), (47.58, 50.04)]</t>
+          <t>[('0:02:34.020000', '0:02:39.240000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:01:15.520000', '0:01:19.700000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_55</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_118</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.07728085867620751</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(17.86, 28.3)]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(42.88, 45.1)]</t>
+          <t>[('0:01:33.920000', '0:01:50.760000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:11.060000', '0:00:17.280000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.07146401985111663</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#']]</t>
-        </is>
+          <t>schubert-winterreise_173</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1177257525083612</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D:min', 'G:min/5', 'D:min']]</t>
+          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(99.6, 111.62)]</t>
+          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(27.789047, 31.109501)]</t>
+          <t>[('0:00:01.420000', '0:00:05.020000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
+          <t>[('0:00:40.460000', '0:00:43.620000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>isophonics_32</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_268</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1274509803921569</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['A', 'D', 'D/b7']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(46.52, 48.94)]</t>
+          <t>[['E', 'A', 'A']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(39.04, 46.1)]</t>
+          <t>[('0:00:31.439841', '0:00:35.781972')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:06.090000', '0:00:13.659705')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:7DD7eSuYSC5xk2ArU62esN</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_111</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4211538461538462</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(12.78, 16.74)]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(36.82, 38.82)]</t>
+          <t>[('0:01:06.100000', '0:01:24.780000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:17.180000', '0:00:48.160000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
-        </is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_174</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4740740740740741</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(94.4, 104.48)]</t>
+          <t>[['D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(38.62, 46.84)]</t>
+          <t>[('0:02:12.300000', '0:02:17.480000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:01.150000', '0:00:06.536000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'D#:min/A#', 'A#:min'], ['A#:min/F', 'F:7', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_197</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.2202898550724638</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(25.48, 32.8), (74.5, 80.42)]</t>
+          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(90.6, 101.18), (42.44, 44.36)]</t>
+          <t>[('0:00:01.680000', '0:00:05.300000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:07.800000', '0:00:13.900000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_52</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_47</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(6.88, 12.96)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(1.92, 5.28)]</t>
+          <t>[('0:00:01.440000', '0:02:06.440000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:00.360000', '0:02:02.640000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['F:min/C', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(43.68, 45.8)]</t>
+          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(39.84, 47.28)]</t>
+          <t>[('0:00:01.640000', '0:00:23.800000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:00.560000', '0:00:25.400000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_71</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_109</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'G:7', 'C:min', 'C:min', 'G:7', 'C:min', 'C:min', 'C:min/G', 'G:7', 'C:(3,5,b7,b9)/E', 'F:min', 'C:maj/G', 'G:7', 'C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'D#:maj/A#', 'A#:7', 'D#:maj', 'G:(3,5,b7,b9)/B', 'A#:7', 'D#:maj/A#', 'A#:maj', 'G:(3,5,b7,b9)/B', 'A#:7', 'D#:maj/A#', 'A#:7', 'D#:maj', 'C:min/G', 'G:7', 'C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'G:7', 'C:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(39.84, 47.28)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(0.36, 5.0)]</t>
+          <t>[('0:00:00.360000', '0:02:27.720000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:01.540000', '0:02:18.860000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
         <is>
           <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
@@ -1068,137 +1102,94 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
-        </is>
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C#:maj/G#', 'G#:7', 'C#:maj']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(38.62, 44.06)]</t>
+          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(29.5, 31.64)]</t>
+          <t>[('0:02:00.400000', '0:02:07.200000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:01:52.240000', '0:01:57.700000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_102</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_49</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_29</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['A:min', 'E:7/B', 'A:min/C', 'A:maj/C#', 'D:min', 'B:hdim7', 'A:min', 'A#:maj', 'F:maj/A', 'E:7', 'F:maj'], ['A:7/G', 'D:min/F', 'A:maj/E', 'D:min/F', 'A:maj/E', 'D:min/F', 'A:maj/E', 'D:min/F', 'A:maj/E', 'D:min', 'A:min/E']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(16.84, 21.54)]</t>
+          <t>[['A#:min', 'F:7/C', 'A#:min/C#', 'A#:maj/D', 'D#:min', 'C:hdim7', 'A#:min', 'B:maj', 'F#:maj/A#', 'F:7', 'F#:maj'], ['A#:7/G#', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min', 'A#:min/F']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(68.82, 84.54)]</t>
+          <t>[('0:00:00.340000', '0:00:08.840000'), ('0:01:11.800000', '0:01:19.080000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_22</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_164</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(16.88, 60.84)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(14.52, 59.64)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:00.800000', '0:00:09.520000'), ('0:01:10.800000', '0:01:18.300000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
